--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -772,15 +872,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002823-凯中精密.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5200</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -676,225 +660,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1125</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -970,26 +764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0863</t>
+          <t>0.0816</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1008,26 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1046,26 +840,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1084,26 +878,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1178,26 +972,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>0.0863</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1216,26 +1010,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1254,26 +1048,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1292,26 +1086,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1140,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1376,36 +1170,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.5200</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1414,35 +1208,225 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001608</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>英大策略优选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1457,112 +1441,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>